--- a/testdata/testfile.xlsx
+++ b/testdata/testfile.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\go\src\xlsx2csv\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="13995" windowHeight="5130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Foo</t>
   </si>
@@ -29,18 +34,36 @@
   <si>
     <t>Quuk</t>
   </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,21 +86,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -115,9 +149,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +183,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +218,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -358,56 +394,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1">
+        <v>0.97899999999999998</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>